--- a/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-2.437500973682897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.376827670433518</v>
+        <v>5.376827670433515</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.870198116137515</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2755988277866155</v>
+        <v>-0.785364803154278</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.82047096061059</v>
+        <v>-5.028930328936074</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.391242967336848</v>
+        <v>2.451220636055198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7357604962385168</v>
+        <v>0.9341264663157597</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.302300504157845</v>
+        <v>-2.387271904980057</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4632464301324423</v>
+        <v>0.1603522411758473</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8980320357589555</v>
+        <v>0.9137835252542417</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.829802243971292</v>
+        <v>-2.816934144451701</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.512345541082065</v>
+        <v>1.79118886636764</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.370083507897137</v>
+        <v>5.102067125850509</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1498258072315731</v>
+        <v>0.1172071892116216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.170196475801408</v>
+        <v>9.408145106950171</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.159463936089759</v>
+        <v>5.305927111147049</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.622119064289555</v>
+        <v>1.686101938345981</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.500432003214652</v>
+        <v>4.342372158675616</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.419573916584485</v>
+        <v>4.310864156988514</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3158564836604566</v>
+        <v>0.2986922461069076</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.484746215155874</v>
+        <v>5.52094363605308</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.269996935174286</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5955800664907573</v>
+        <v>0.595580066490757</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4279363357483345</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02931108586529049</v>
+        <v>-0.07993434692241511</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.478386645120892</v>
+        <v>-0.5058169723452545</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2302406285296801</v>
+        <v>0.2292794790992446</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1036950782126475</v>
+        <v>0.1107577468669927</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3058107464318722</v>
+        <v>-0.3237823047674936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06210639607860471</v>
+        <v>0.01687901539130118</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1136186762915528</v>
+        <v>0.1113657776255204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3363011467086072</v>
+        <v>-0.3292235944503022</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.179591916703645</v>
+        <v>0.2069462526498529</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6868086956038876</v>
+        <v>0.6645043678577414</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.01939493825736261</v>
+        <v>0.01386789508801245</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.150230207278189</v>
+        <v>1.2396466621964</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9310047921991723</v>
+        <v>0.9072420796157319</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2824560961745047</v>
+        <v>0.2959889769183702</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7667464286333119</v>
+        <v>0.7497000223732263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6391908623785968</v>
+        <v>0.6128370409118964</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04778421374191683</v>
+        <v>0.04069385055390472</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7807228285819925</v>
+        <v>0.7778255514826654</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.563922106384693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.619155159409393</v>
+        <v>-0.6191551594093875</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7112838105250846</v>
@@ -869,7 +869,7 @@
         <v>0.732390412113948</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.4504698802956286</v>
+        <v>-0.4504698802956314</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7223635863252059</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.930569533809843</v>
+        <v>-2.055274398308661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.091928619504803</v>
+        <v>-6.078592929728683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.434768822675192</v>
+        <v>-3.269685731349328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.82267577148496</v>
+        <v>-1.929323505388406</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.535963286476422</v>
+        <v>-1.86594080474738</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.758552978486715</v>
+        <v>-2.848568551647495</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.220836052012493</v>
+        <v>-1.185406576435606</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.217099617208306</v>
+        <v>-3.292767349439494</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.569378663908231</v>
+        <v>-2.30807858658441</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.46182950642023</v>
+        <v>3.513664274127695</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.123720906985879</v>
+        <v>-0.8699877178196768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.898548248025794</v>
+        <v>2.051180379018771</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.314258326083735</v>
+        <v>3.43265224552868</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.050953389048847</v>
+        <v>3.152406007480383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.037778774207937</v>
+        <v>1.872511614820751</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.552243609524287</v>
+        <v>2.548795529451912</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.287811543142274</v>
+        <v>0.3163116036886291</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.070573549463427</v>
+        <v>1.378070352679669</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1877813799106764</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03262299420192795</v>
+        <v>-0.03262299420192766</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.0466957809617105</v>
@@ -974,7 +974,7 @@
         <v>0.04808142932043256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0295733468818925</v>
+        <v>-0.02957334688189268</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04207861145885825</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09497037361637353</v>
+        <v>-0.09916642893309545</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2956885434001441</v>
+        <v>-0.2948997544386674</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1710640634477638</v>
+        <v>-0.1636388985085847</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1089316456808164</v>
+        <v>-0.1204302085996887</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09458028736942721</v>
+        <v>-0.11514589819951</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1688223312737759</v>
+        <v>-0.1718952787349316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06723758583559389</v>
+        <v>-0.06746072138733428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1765881117817615</v>
+        <v>-0.182886241411117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1412351426900553</v>
+        <v>-0.1295609192743067</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1951505899350723</v>
+        <v>0.2049747364791028</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06317176318113193</v>
+        <v>-0.04931838506782336</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1100625434801739</v>
+        <v>0.1202271009420481</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2367755517413001</v>
+        <v>0.2454134051601172</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2109247834678563</v>
+        <v>0.2312780462906483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1462228152020589</v>
+        <v>0.1300312234531336</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1587756129858047</v>
+        <v>0.159038212357366</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01741756530970207</v>
+        <v>0.01815477307033352</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.06678479403151281</v>
+        <v>0.08753245319273555</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.372999468772463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.154669404958349</v>
+        <v>-3.154669404958355</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.674313683875758</v>
@@ -1092,7 +1092,7 @@
         <v>-1.654127040269698</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-4.083235269534311</v>
+        <v>-4.083235269534313</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.136988051986144</v>
+        <v>-0.725475601787974</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.342333361824712</v>
+        <v>-6.897822237288798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.249794027471344</v>
+        <v>-7.47731899984045</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.828478661870392</v>
+        <v>-8.374636921656368</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.038541657164497</v>
+        <v>-5.655263880740534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.174464049118887</v>
+        <v>-9.801861191660938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.161076095950664</v>
+        <v>-3.682817586059393</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.289491351806739</v>
+        <v>-5.172301575315796</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.553235034383972</v>
+        <v>-7.211587216325137</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.593539554613875</v>
+        <v>10.14235820430252</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.285388699354574</v>
+        <v>2.469869083382279</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.438703561428235</v>
+        <v>1.370370039904661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.565940965717644</v>
+        <v>1.458514520787017</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.796796258638834</v>
+        <v>4.058370879997214</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.5775700224342442</v>
+        <v>-0.9020532209378134</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.199246351326595</v>
+        <v>3.609658936299305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.805402924593431</v>
+        <v>1.680912809415751</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.220900766454519</v>
+        <v>-0.8017489501685331</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.1307777324372762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1738561330496712</v>
+        <v>-0.1738561330496715</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1945145714769991</v>
@@ -1197,7 +1197,7 @@
         <v>-0.08945969085262227</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2208324729589724</v>
+        <v>-0.2208324729589725</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05736543742852652</v>
+        <v>-0.03631067579076731</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3458277783825091</v>
+        <v>-0.330144930739327</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3684096494971197</v>
+        <v>-0.3672887227885773</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4078519629804402</v>
+        <v>-0.3976465211232588</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.284370353812371</v>
+        <v>-0.2652682630920388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4268903592237974</v>
+        <v>-0.4323546627256845</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1639731061861169</v>
+        <v>-0.1806695744210088</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2596411197705007</v>
+        <v>-0.2605090925862157</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3630757014720987</v>
+        <v>-0.3530945634610582</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6016614863749552</v>
+        <v>0.6299906890079392</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1557886465074054</v>
+        <v>0.1603125188056324</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09244738873832481</v>
+        <v>0.08804817529978519</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1036932276705793</v>
+        <v>0.08565667261989778</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2402480525049943</v>
+        <v>0.2423076760568516</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.0349003213365657</v>
+        <v>-0.04703513103532633</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2523501250060365</v>
+        <v>0.2135816242075211</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1085160115857687</v>
+        <v>0.1002923090794626</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.07147944622089444</v>
+        <v>-0.04336769621344946</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.133886159073275</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.915525757692523</v>
+        <v>0.9155257576925258</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.461344134021772</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.0979887540316591</v>
+        <v>0.2018211997601331</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.987507608478086</v>
+        <v>-3.767849780695094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7442385573257535</v>
+        <v>-0.6714257218877707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5331143129741391</v>
+        <v>-0.6344723489296229</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.4878772289789722</v>
+        <v>-0.3519896664103715</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.6586146740002775</v>
+        <v>-0.8528657755816447</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1236567530570414</v>
+        <v>0.2718536297836556</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.694125895823897</v>
+        <v>-1.784450806375245</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.05435569437879193</v>
+        <v>-0.07698960143119229</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.683125303305345</v>
+        <v>3.686935178163248</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.5351204785277457</v>
+        <v>-0.2148681037617945</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.112419939124266</v>
+        <v>3.48818514416802</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.844348586928828</v>
+        <v>2.541302285554856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.694263284153048</v>
+        <v>2.821074224306012</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.448381182584994</v>
+        <v>2.434074649907422</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.612775388333259</v>
+        <v>2.647499659445318</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6751264171150483</v>
+        <v>0.6153573051223459</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.328273874444095</v>
+        <v>2.412902365044671</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.09123760865768196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07366734317018878</v>
+        <v>0.073667343170189</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.104065117863436</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.002529201197937519</v>
+        <v>0.01183520564785767</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2393638907080459</v>
+        <v>-0.2302687470451175</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.04621115419231849</v>
+        <v>-0.03912011432733323</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03957990762485758</v>
+        <v>-0.05182559352993576</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03694749053566365</v>
+        <v>-0.0257913277242658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0492819398712367</v>
+        <v>-0.06491548344990142</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01024170855964765</v>
+        <v>0.01772714973958326</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1169461057707182</v>
+        <v>-0.1224187555355202</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.003403259893919517</v>
+        <v>-0.005338957523228073</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2522810578397017</v>
+        <v>0.2488996885375957</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.03379164286746797</v>
+        <v>-0.009912560914077257</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2103378154323243</v>
+        <v>0.2336875955965954</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2484659987796374</v>
+        <v>0.2130040061902642</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2316863895947251</v>
+        <v>0.2430059480902759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2104480203537367</v>
+        <v>0.2064076520971624</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1945411931787146</v>
+        <v>0.1979224519004831</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04980558762799465</v>
+        <v>0.04652246679134952</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1752504596853802</v>
+        <v>0.1800874670020341</v>
       </c>
     </row>
     <row r="28">
